--- a/po_analysis_by_asin/B0968QT6SS_po_data.xlsx
+++ b/po_analysis_by_asin/B0968QT6SS_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -677,7 +678,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -735,6 +736,509 @@
       </c>
       <c r="B8" t="n">
         <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.281505314149598</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.98929156327432</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-9.519577964331784</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.08715695364212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-8.201414594473471</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.07692404391662</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.363693740482033</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.89984977755833</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-8.861460759896818</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.98724835963683</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-6.96783951484263</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.70509387325452</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.647576517877613</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.44690889020851</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.150132990428413</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.54448615086459</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.371479304466375</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.97371752135529</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-4.902760307482693</v>
+      </c>
+      <c r="D11" t="n">
+        <v>24.18137106757434</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-4.547099269441332</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23.94613484454279</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-2.898879433754258</v>
+      </c>
+      <c r="D13" t="n">
+        <v>24.55081271555313</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.448719853883297</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24.21216574805483</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.556346898986052</v>
+      </c>
+      <c r="D15" t="n">
+        <v>26.55114618682475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.895293376355751</v>
+      </c>
+      <c r="D16" t="n">
+        <v>26.87389512925207</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.09836144740700339</v>
+      </c>
+      <c r="D17" t="n">
+        <v>27.47025764468373</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.1860149750072271</v>
+      </c>
+      <c r="D18" t="n">
+        <v>27.51733982234315</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02681632071212453</v>
+      </c>
+      <c r="D19" t="n">
+        <v>27.96384855489089</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.09922702658654373</v>
+      </c>
+      <c r="D20" t="n">
+        <v>29.03863237466594</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5993553341898735</v>
+      </c>
+      <c r="D21" t="n">
+        <v>28.405236451706</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.173893499417531</v>
+      </c>
+      <c r="D22" t="n">
+        <v>29.40926211347719</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.689333820315973</v>
+      </c>
+      <c r="D23" t="n">
+        <v>29.8513842887968</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>17</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.254907567379863</v>
+      </c>
+      <c r="D24" t="n">
+        <v>30.85749585884521</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>17</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.549702671718616</v>
+      </c>
+      <c r="D25" t="n">
+        <v>30.80733029870285</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>18</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.174042365699745</v>
+      </c>
+      <c r="D26" t="n">
+        <v>31.68804132243287</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>18</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.574298114985808</v>
+      </c>
+      <c r="D27" t="n">
+        <v>33.68355634959946</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>19</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.884807504624115</v>
+      </c>
+      <c r="D28" t="n">
+        <v>31.6576826538704</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>19</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.764418886565775</v>
+      </c>
+      <c r="D29" t="n">
+        <v>32.71572985894117</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.927444548340753</v>
+      </c>
+      <c r="D30" t="n">
+        <v>34.27325363202704</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.814983506305382</v>
+      </c>
+      <c r="D31" t="n">
+        <v>33.82704079601682</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>21</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.485527973038133</v>
+      </c>
+      <c r="D32" t="n">
+        <v>35.69733803785198</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>21</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7.524944557084569</v>
+      </c>
+      <c r="D33" t="n">
+        <v>34.48905815663256</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>22</v>
+      </c>
+      <c r="C34" t="n">
+        <v>9.039660345274546</v>
+      </c>
+      <c r="D34" t="n">
+        <v>35.85440152312398</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0968QT6SS_po_data.xlsx
+++ b/po_analysis_by_asin/B0968QT6SS_po_data.xlsx
@@ -749,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,16 +768,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -786,12 +776,6 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>-9.281505314149598</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.98929156327432</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -800,12 +784,6 @@
       <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>-9.519577964331784</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.08715695364212</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -814,12 +792,6 @@
       <c r="B4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>-8.201414594473471</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.07692404391662</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -828,12 +800,6 @@
       <c r="B5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
-        <v>-8.363693740482033</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.89984977755833</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -842,12 +808,6 @@
       <c r="B6" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>-8.861460759896818</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19.98724835963683</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -856,12 +816,6 @@
       <c r="B7" t="n">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
-        <v>-6.96783951484263</v>
-      </c>
-      <c r="D7" t="n">
-        <v>21.70509387325452</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -870,12 +824,6 @@
       <c r="B8" t="n">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
-        <v>-5.647576517877613</v>
-      </c>
-      <c r="D8" t="n">
-        <v>22.44690889020851</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -884,12 +832,6 @@
       <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>-5.150132990428413</v>
-      </c>
-      <c r="D9" t="n">
-        <v>22.54448615086459</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -898,12 +840,6 @@
       <c r="B10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" t="n">
-        <v>-5.371479304466375</v>
-      </c>
-      <c r="D10" t="n">
-        <v>23.97371752135529</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -912,12 +848,6 @@
       <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="n">
-        <v>-4.902760307482693</v>
-      </c>
-      <c r="D11" t="n">
-        <v>24.18137106757434</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -926,12 +856,6 @@
       <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="C12" t="n">
-        <v>-4.547099269441332</v>
-      </c>
-      <c r="D12" t="n">
-        <v>23.94613484454279</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -940,12 +864,6 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="n">
-        <v>-2.898879433754258</v>
-      </c>
-      <c r="D13" t="n">
-        <v>24.55081271555313</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -954,12 +872,6 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="n">
-        <v>-3.448719853883297</v>
-      </c>
-      <c r="D14" t="n">
-        <v>24.21216574805483</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -968,12 +880,6 @@
       <c r="B15" t="n">
         <v>12</v>
       </c>
-      <c r="C15" t="n">
-        <v>-1.556346898986052</v>
-      </c>
-      <c r="D15" t="n">
-        <v>26.55114618682475</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -982,12 +888,6 @@
       <c r="B16" t="n">
         <v>13</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1.895293376355751</v>
-      </c>
-      <c r="D16" t="n">
-        <v>26.87389512925207</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -996,12 +896,6 @@
       <c r="B17" t="n">
         <v>13</v>
       </c>
-      <c r="C17" t="n">
-        <v>-0.09836144740700339</v>
-      </c>
-      <c r="D17" t="n">
-        <v>27.47025764468373</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1010,12 +904,6 @@
       <c r="B18" t="n">
         <v>14</v>
       </c>
-      <c r="C18" t="n">
-        <v>-0.1860149750072271</v>
-      </c>
-      <c r="D18" t="n">
-        <v>27.51733982234315</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1024,12 +912,6 @@
       <c r="B19" t="n">
         <v>14</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.02681632071212453</v>
-      </c>
-      <c r="D19" t="n">
-        <v>27.96384855489089</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1038,12 +920,6 @@
       <c r="B20" t="n">
         <v>15</v>
       </c>
-      <c r="C20" t="n">
-        <v>-0.09922702658654373</v>
-      </c>
-      <c r="D20" t="n">
-        <v>29.03863237466594</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1052,12 +928,6 @@
       <c r="B21" t="n">
         <v>15</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.5993553341898735</v>
-      </c>
-      <c r="D21" t="n">
-        <v>28.405236451706</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1066,12 +936,6 @@
       <c r="B22" t="n">
         <v>16</v>
       </c>
-      <c r="C22" t="n">
-        <v>1.173893499417531</v>
-      </c>
-      <c r="D22" t="n">
-        <v>29.40926211347719</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1080,12 +944,6 @@
       <c r="B23" t="n">
         <v>16</v>
       </c>
-      <c r="C23" t="n">
-        <v>1.689333820315973</v>
-      </c>
-      <c r="D23" t="n">
-        <v>29.8513842887968</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1094,12 +952,6 @@
       <c r="B24" t="n">
         <v>17</v>
       </c>
-      <c r="C24" t="n">
-        <v>2.254907567379863</v>
-      </c>
-      <c r="D24" t="n">
-        <v>30.85749585884521</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1108,12 +960,6 @@
       <c r="B25" t="n">
         <v>17</v>
       </c>
-      <c r="C25" t="n">
-        <v>3.549702671718616</v>
-      </c>
-      <c r="D25" t="n">
-        <v>30.80733029870285</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1122,12 +968,6 @@
       <c r="B26" t="n">
         <v>18</v>
       </c>
-      <c r="C26" t="n">
-        <v>4.174042365699745</v>
-      </c>
-      <c r="D26" t="n">
-        <v>31.68804132243287</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1136,12 +976,6 @@
       <c r="B27" t="n">
         <v>18</v>
       </c>
-      <c r="C27" t="n">
-        <v>4.574298114985808</v>
-      </c>
-      <c r="D27" t="n">
-        <v>33.68355634959946</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1150,12 +984,6 @@
       <c r="B28" t="n">
         <v>19</v>
       </c>
-      <c r="C28" t="n">
-        <v>4.884807504624115</v>
-      </c>
-      <c r="D28" t="n">
-        <v>31.6576826538704</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1164,12 +992,6 @@
       <c r="B29" t="n">
         <v>19</v>
       </c>
-      <c r="C29" t="n">
-        <v>5.764418886565775</v>
-      </c>
-      <c r="D29" t="n">
-        <v>32.71572985894117</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1178,12 +1000,6 @@
       <c r="B30" t="n">
         <v>20</v>
       </c>
-      <c r="C30" t="n">
-        <v>4.927444548340753</v>
-      </c>
-      <c r="D30" t="n">
-        <v>34.27325363202704</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1192,12 +1008,6 @@
       <c r="B31" t="n">
         <v>20</v>
       </c>
-      <c r="C31" t="n">
-        <v>6.814983506305382</v>
-      </c>
-      <c r="D31" t="n">
-        <v>33.82704079601682</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1206,12 +1016,6 @@
       <c r="B32" t="n">
         <v>21</v>
       </c>
-      <c r="C32" t="n">
-        <v>6.485527973038133</v>
-      </c>
-      <c r="D32" t="n">
-        <v>35.69733803785198</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1220,12 +1024,6 @@
       <c r="B33" t="n">
         <v>21</v>
       </c>
-      <c r="C33" t="n">
-        <v>7.524944557084569</v>
-      </c>
-      <c r="D33" t="n">
-        <v>34.48905815663256</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1233,12 +1031,6 @@
       </c>
       <c r="B34" t="n">
         <v>22</v>
-      </c>
-      <c r="C34" t="n">
-        <v>9.039660345274546</v>
-      </c>
-      <c r="D34" t="n">
-        <v>35.85440152312398</v>
       </c>
     </row>
   </sheetData>
